--- a/biology/Botanique/Crudia/Crudia.xlsx
+++ b/biology/Botanique/Crudia/Crudia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crudia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, à répartition pantropicale, qui comprend plus de 50 espèces acceptées.
-Ce sont des arbres et des arbustes, rarement grimpants, qui poussent dans les forêts tropicales pluviales et marécageuses, dans les broussailles et les fourrés, situés souvent le long des cours d'eau. Les arbres ont un bois très dur et lourd, peu exploité[3].
+Ce sont des arbres et des arbustes, rarement grimpants, qui poussent dans les forêts tropicales pluviales et marécageuses, dans les broussailles et les fourrés, situés souvent le long des cours d'eau. Les arbres ont un bois très dur et lourd, peu exploité.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Crudia », est un nom vernaculaire emprunté à une langue du Guyana[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Crudia », est un nom vernaculaire emprunté à une langue du Guyana.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (12 novembre 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 novembre 2018) :
 Crudia acuminata Benth.
 Crudia acuta de Wit
 Crudia aequalis Ducke
